--- a/공용폴더/픽스어빌리티스토리보드_월간.xlsx
+++ b/공용폴더/픽스어빌리티스토리보드_월간.xlsx
@@ -26,12 +26,12 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -870,28 +870,16 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,73 +921,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1500,10 +1444,10 @@
   <dimension ref="A1:PS36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="ER10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="GP10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" outlineLevelRow="1"/>
@@ -1564,16 +1508,16 @@
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="45">
         <v>44137</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
@@ -1611,17 +1555,17 @@
       <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="51" t="e">
+      <c r="C3" s="47" t="e">
         <f>ROUND(SUM(G10,#REF!,#REF!,#REF!,#REF!)/5,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="56">
+      <c r="D3" s="48"/>
+      <c r="E3" s="52">
         <v>44321</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -1659,15 +1603,15 @@
       <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="51" t="e">
+      <c r="C4" s="47" t="e">
         <f>ROUND(SUM(H10,#REF!,#REF!,#REF!,#REF!)/5,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -1703,28 +1647,28 @@
     </row>
     <row r="5" spans="1:435" ht="27" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:435" ht="30.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="60" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="42" t="s">
@@ -1824,374 +1768,374 @@
       <c r="CS6" s="42"/>
       <c r="CT6" s="42"/>
       <c r="CU6" s="42"/>
-      <c r="CV6" s="62" t="s">
+      <c r="CV6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="CW6" s="63"/>
-      <c r="CX6" s="63"/>
-      <c r="CY6" s="63"/>
-      <c r="CZ6" s="63"/>
-      <c r="DA6" s="63"/>
-      <c r="DB6" s="63"/>
-      <c r="DC6" s="63"/>
-      <c r="DD6" s="63"/>
-      <c r="DE6" s="63"/>
-      <c r="DF6" s="63"/>
-      <c r="DG6" s="63"/>
-      <c r="DH6" s="63"/>
-      <c r="DI6" s="63"/>
-      <c r="DJ6" s="63"/>
-      <c r="DK6" s="63"/>
-      <c r="DL6" s="63"/>
-      <c r="DM6" s="63"/>
-      <c r="DN6" s="63"/>
-      <c r="DO6" s="63"/>
-      <c r="DP6" s="63"/>
-      <c r="DQ6" s="63"/>
-      <c r="DR6" s="63"/>
-      <c r="DS6" s="63"/>
-      <c r="DT6" s="63"/>
-      <c r="DU6" s="63"/>
-      <c r="DV6" s="63"/>
-      <c r="DW6" s="63"/>
-      <c r="DX6" s="63" t="s">
+      <c r="CW6" s="41"/>
+      <c r="CX6" s="41"/>
+      <c r="CY6" s="41"/>
+      <c r="CZ6" s="41"/>
+      <c r="DA6" s="41"/>
+      <c r="DB6" s="41"/>
+      <c r="DC6" s="41"/>
+      <c r="DD6" s="41"/>
+      <c r="DE6" s="41"/>
+      <c r="DF6" s="41"/>
+      <c r="DG6" s="41"/>
+      <c r="DH6" s="41"/>
+      <c r="DI6" s="41"/>
+      <c r="DJ6" s="41"/>
+      <c r="DK6" s="41"/>
+      <c r="DL6" s="41"/>
+      <c r="DM6" s="41"/>
+      <c r="DN6" s="41"/>
+      <c r="DO6" s="41"/>
+      <c r="DP6" s="41"/>
+      <c r="DQ6" s="41"/>
+      <c r="DR6" s="41"/>
+      <c r="DS6" s="41"/>
+      <c r="DT6" s="41"/>
+      <c r="DU6" s="41"/>
+      <c r="DV6" s="41"/>
+      <c r="DW6" s="41"/>
+      <c r="DX6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="DY6" s="63"/>
-      <c r="DZ6" s="63"/>
-      <c r="EA6" s="63"/>
-      <c r="EB6" s="63"/>
-      <c r="EC6" s="63"/>
-      <c r="ED6" s="63"/>
-      <c r="EE6" s="63"/>
-      <c r="EF6" s="63"/>
-      <c r="EG6" s="63"/>
-      <c r="EH6" s="63"/>
-      <c r="EI6" s="63"/>
-      <c r="EJ6" s="63"/>
-      <c r="EK6" s="63"/>
-      <c r="EL6" s="63"/>
-      <c r="EM6" s="63"/>
-      <c r="EN6" s="63"/>
-      <c r="EO6" s="63"/>
-      <c r="EP6" s="63"/>
-      <c r="EQ6" s="63"/>
-      <c r="ER6" s="63"/>
-      <c r="ES6" s="63"/>
-      <c r="ET6" s="63"/>
-      <c r="EU6" s="63"/>
-      <c r="EV6" s="63"/>
-      <c r="EW6" s="63"/>
-      <c r="EX6" s="63"/>
-      <c r="EY6" s="63"/>
-      <c r="EZ6" s="63"/>
-      <c r="FA6" s="63"/>
-      <c r="FB6" s="63"/>
-      <c r="FC6" s="63" t="s">
+      <c r="DY6" s="41"/>
+      <c r="DZ6" s="41"/>
+      <c r="EA6" s="41"/>
+      <c r="EB6" s="41"/>
+      <c r="EC6" s="41"/>
+      <c r="ED6" s="41"/>
+      <c r="EE6" s="41"/>
+      <c r="EF6" s="41"/>
+      <c r="EG6" s="41"/>
+      <c r="EH6" s="41"/>
+      <c r="EI6" s="41"/>
+      <c r="EJ6" s="41"/>
+      <c r="EK6" s="41"/>
+      <c r="EL6" s="41"/>
+      <c r="EM6" s="41"/>
+      <c r="EN6" s="41"/>
+      <c r="EO6" s="41"/>
+      <c r="EP6" s="41"/>
+      <c r="EQ6" s="41"/>
+      <c r="ER6" s="41"/>
+      <c r="ES6" s="41"/>
+      <c r="ET6" s="41"/>
+      <c r="EU6" s="41"/>
+      <c r="EV6" s="41"/>
+      <c r="EW6" s="41"/>
+      <c r="EX6" s="41"/>
+      <c r="EY6" s="41"/>
+      <c r="EZ6" s="41"/>
+      <c r="FA6" s="41"/>
+      <c r="FB6" s="41"/>
+      <c r="FC6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="FD6" s="63"/>
-      <c r="FE6" s="63"/>
-      <c r="FF6" s="63"/>
-      <c r="FG6" s="63"/>
-      <c r="FH6" s="63"/>
-      <c r="FI6" s="63"/>
-      <c r="FJ6" s="63"/>
-      <c r="FK6" s="63"/>
-      <c r="FL6" s="63"/>
-      <c r="FM6" s="63"/>
-      <c r="FN6" s="63"/>
-      <c r="FO6" s="63"/>
-      <c r="FP6" s="63"/>
-      <c r="FQ6" s="63"/>
-      <c r="FR6" s="63"/>
-      <c r="FS6" s="63"/>
-      <c r="FT6" s="63"/>
-      <c r="FU6" s="63"/>
-      <c r="FV6" s="63"/>
-      <c r="FW6" s="63"/>
-      <c r="FX6" s="63"/>
-      <c r="FY6" s="63"/>
-      <c r="FZ6" s="63"/>
-      <c r="GA6" s="63"/>
-      <c r="GB6" s="63"/>
-      <c r="GC6" s="63"/>
-      <c r="GD6" s="63"/>
-      <c r="GE6" s="63"/>
-      <c r="GF6" s="63"/>
-      <c r="GG6" s="63" t="s">
+      <c r="FD6" s="41"/>
+      <c r="FE6" s="41"/>
+      <c r="FF6" s="41"/>
+      <c r="FG6" s="41"/>
+      <c r="FH6" s="41"/>
+      <c r="FI6" s="41"/>
+      <c r="FJ6" s="41"/>
+      <c r="FK6" s="41"/>
+      <c r="FL6" s="41"/>
+      <c r="FM6" s="41"/>
+      <c r="FN6" s="41"/>
+      <c r="FO6" s="41"/>
+      <c r="FP6" s="41"/>
+      <c r="FQ6" s="41"/>
+      <c r="FR6" s="41"/>
+      <c r="FS6" s="41"/>
+      <c r="FT6" s="41"/>
+      <c r="FU6" s="41"/>
+      <c r="FV6" s="41"/>
+      <c r="FW6" s="41"/>
+      <c r="FX6" s="41"/>
+      <c r="FY6" s="41"/>
+      <c r="FZ6" s="41"/>
+      <c r="GA6" s="41"/>
+      <c r="GB6" s="41"/>
+      <c r="GC6" s="41"/>
+      <c r="GD6" s="41"/>
+      <c r="GE6" s="41"/>
+      <c r="GF6" s="41"/>
+      <c r="GG6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="GH6" s="63"/>
-      <c r="GI6" s="63"/>
-      <c r="GJ6" s="63"/>
-      <c r="GK6" s="63"/>
-      <c r="GL6" s="63"/>
-      <c r="GM6" s="63"/>
-      <c r="GN6" s="63"/>
-      <c r="GO6" s="63"/>
-      <c r="GP6" s="63"/>
-      <c r="GQ6" s="63"/>
-      <c r="GR6" s="63"/>
-      <c r="GS6" s="63"/>
-      <c r="GT6" s="63"/>
-      <c r="GU6" s="63"/>
-      <c r="GV6" s="63"/>
-      <c r="GW6" s="63"/>
-      <c r="GX6" s="63"/>
-      <c r="GY6" s="63"/>
-      <c r="GZ6" s="63"/>
-      <c r="HA6" s="63"/>
-      <c r="HB6" s="63"/>
-      <c r="HC6" s="63"/>
-      <c r="HD6" s="63"/>
-      <c r="HE6" s="63"/>
-      <c r="HF6" s="63"/>
-      <c r="HG6" s="63"/>
-      <c r="HH6" s="63"/>
-      <c r="HI6" s="63"/>
-      <c r="HJ6" s="63"/>
-      <c r="HK6" s="63"/>
-      <c r="HL6" s="63" t="s">
+      <c r="GH6" s="41"/>
+      <c r="GI6" s="41"/>
+      <c r="GJ6" s="41"/>
+      <c r="GK6" s="41"/>
+      <c r="GL6" s="41"/>
+      <c r="GM6" s="41"/>
+      <c r="GN6" s="41"/>
+      <c r="GO6" s="41"/>
+      <c r="GP6" s="41"/>
+      <c r="GQ6" s="41"/>
+      <c r="GR6" s="41"/>
+      <c r="GS6" s="41"/>
+      <c r="GT6" s="41"/>
+      <c r="GU6" s="41"/>
+      <c r="GV6" s="41"/>
+      <c r="GW6" s="41"/>
+      <c r="GX6" s="41"/>
+      <c r="GY6" s="41"/>
+      <c r="GZ6" s="41"/>
+      <c r="HA6" s="41"/>
+      <c r="HB6" s="41"/>
+      <c r="HC6" s="41"/>
+      <c r="HD6" s="41"/>
+      <c r="HE6" s="41"/>
+      <c r="HF6" s="41"/>
+      <c r="HG6" s="41"/>
+      <c r="HH6" s="41"/>
+      <c r="HI6" s="41"/>
+      <c r="HJ6" s="41"/>
+      <c r="HK6" s="41"/>
+      <c r="HL6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="HM6" s="63"/>
-      <c r="HN6" s="63"/>
-      <c r="HO6" s="63"/>
-      <c r="HP6" s="63"/>
-      <c r="HQ6" s="63"/>
-      <c r="HR6" s="63"/>
-      <c r="HS6" s="63"/>
-      <c r="HT6" s="63"/>
-      <c r="HU6" s="63"/>
-      <c r="HV6" s="63"/>
-      <c r="HW6" s="63"/>
-      <c r="HX6" s="63"/>
-      <c r="HY6" s="63"/>
-      <c r="HZ6" s="63"/>
-      <c r="IA6" s="63"/>
-      <c r="IB6" s="63"/>
-      <c r="IC6" s="63"/>
-      <c r="ID6" s="63"/>
-      <c r="IE6" s="63"/>
-      <c r="IF6" s="63"/>
-      <c r="IG6" s="63"/>
-      <c r="IH6" s="63"/>
-      <c r="II6" s="63"/>
-      <c r="IJ6" s="63"/>
-      <c r="IK6" s="63"/>
-      <c r="IL6" s="63"/>
-      <c r="IM6" s="63"/>
-      <c r="IN6" s="63"/>
-      <c r="IO6" s="63"/>
-      <c r="IP6" s="63" t="s">
+      <c r="HM6" s="41"/>
+      <c r="HN6" s="41"/>
+      <c r="HO6" s="41"/>
+      <c r="HP6" s="41"/>
+      <c r="HQ6" s="41"/>
+      <c r="HR6" s="41"/>
+      <c r="HS6" s="41"/>
+      <c r="HT6" s="41"/>
+      <c r="HU6" s="41"/>
+      <c r="HV6" s="41"/>
+      <c r="HW6" s="41"/>
+      <c r="HX6" s="41"/>
+      <c r="HY6" s="41"/>
+      <c r="HZ6" s="41"/>
+      <c r="IA6" s="41"/>
+      <c r="IB6" s="41"/>
+      <c r="IC6" s="41"/>
+      <c r="ID6" s="41"/>
+      <c r="IE6" s="41"/>
+      <c r="IF6" s="41"/>
+      <c r="IG6" s="41"/>
+      <c r="IH6" s="41"/>
+      <c r="II6" s="41"/>
+      <c r="IJ6" s="41"/>
+      <c r="IK6" s="41"/>
+      <c r="IL6" s="41"/>
+      <c r="IM6" s="41"/>
+      <c r="IN6" s="41"/>
+      <c r="IO6" s="41"/>
+      <c r="IP6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="IQ6" s="63"/>
-      <c r="IR6" s="63"/>
-      <c r="IS6" s="63"/>
-      <c r="IT6" s="63"/>
-      <c r="IU6" s="63"/>
-      <c r="IV6" s="63"/>
-      <c r="IW6" s="63"/>
-      <c r="IX6" s="63"/>
-      <c r="IY6" s="63"/>
-      <c r="IZ6" s="63"/>
-      <c r="JA6" s="63"/>
-      <c r="JB6" s="63"/>
-      <c r="JC6" s="63"/>
-      <c r="JD6" s="63"/>
-      <c r="JE6" s="63"/>
-      <c r="JF6" s="63"/>
-      <c r="JG6" s="63"/>
-      <c r="JH6" s="63"/>
-      <c r="JI6" s="63"/>
-      <c r="JJ6" s="63"/>
-      <c r="JK6" s="63"/>
-      <c r="JL6" s="63"/>
-      <c r="JM6" s="63"/>
-      <c r="JN6" s="63"/>
-      <c r="JO6" s="63"/>
-      <c r="JP6" s="63"/>
-      <c r="JQ6" s="63"/>
-      <c r="JR6" s="63"/>
-      <c r="JS6" s="63"/>
-      <c r="JT6" s="63"/>
-      <c r="JU6" s="63" t="s">
+      <c r="IQ6" s="41"/>
+      <c r="IR6" s="41"/>
+      <c r="IS6" s="41"/>
+      <c r="IT6" s="41"/>
+      <c r="IU6" s="41"/>
+      <c r="IV6" s="41"/>
+      <c r="IW6" s="41"/>
+      <c r="IX6" s="41"/>
+      <c r="IY6" s="41"/>
+      <c r="IZ6" s="41"/>
+      <c r="JA6" s="41"/>
+      <c r="JB6" s="41"/>
+      <c r="JC6" s="41"/>
+      <c r="JD6" s="41"/>
+      <c r="JE6" s="41"/>
+      <c r="JF6" s="41"/>
+      <c r="JG6" s="41"/>
+      <c r="JH6" s="41"/>
+      <c r="JI6" s="41"/>
+      <c r="JJ6" s="41"/>
+      <c r="JK6" s="41"/>
+      <c r="JL6" s="41"/>
+      <c r="JM6" s="41"/>
+      <c r="JN6" s="41"/>
+      <c r="JO6" s="41"/>
+      <c r="JP6" s="41"/>
+      <c r="JQ6" s="41"/>
+      <c r="JR6" s="41"/>
+      <c r="JS6" s="41"/>
+      <c r="JT6" s="41"/>
+      <c r="JU6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="JV6" s="63"/>
-      <c r="JW6" s="63"/>
-      <c r="JX6" s="63"/>
-      <c r="JY6" s="63"/>
-      <c r="JZ6" s="63"/>
-      <c r="KA6" s="63"/>
-      <c r="KB6" s="63"/>
-      <c r="KC6" s="63"/>
-      <c r="KD6" s="63"/>
-      <c r="KE6" s="63"/>
-      <c r="KF6" s="63"/>
-      <c r="KG6" s="63"/>
-      <c r="KH6" s="63"/>
-      <c r="KI6" s="63"/>
-      <c r="KJ6" s="63"/>
-      <c r="KK6" s="63"/>
-      <c r="KL6" s="63"/>
-      <c r="KM6" s="63"/>
-      <c r="KN6" s="63"/>
-      <c r="KO6" s="63"/>
-      <c r="KP6" s="63"/>
-      <c r="KQ6" s="63"/>
-      <c r="KR6" s="63"/>
-      <c r="KS6" s="63"/>
-      <c r="KT6" s="63"/>
-      <c r="KU6" s="63"/>
-      <c r="KV6" s="63"/>
-      <c r="KW6" s="63"/>
-      <c r="KX6" s="63"/>
-      <c r="KY6" s="63"/>
-      <c r="KZ6" s="63" t="s">
+      <c r="JV6" s="41"/>
+      <c r="JW6" s="41"/>
+      <c r="JX6" s="41"/>
+      <c r="JY6" s="41"/>
+      <c r="JZ6" s="41"/>
+      <c r="KA6" s="41"/>
+      <c r="KB6" s="41"/>
+      <c r="KC6" s="41"/>
+      <c r="KD6" s="41"/>
+      <c r="KE6" s="41"/>
+      <c r="KF6" s="41"/>
+      <c r="KG6" s="41"/>
+      <c r="KH6" s="41"/>
+      <c r="KI6" s="41"/>
+      <c r="KJ6" s="41"/>
+      <c r="KK6" s="41"/>
+      <c r="KL6" s="41"/>
+      <c r="KM6" s="41"/>
+      <c r="KN6" s="41"/>
+      <c r="KO6" s="41"/>
+      <c r="KP6" s="41"/>
+      <c r="KQ6" s="41"/>
+      <c r="KR6" s="41"/>
+      <c r="KS6" s="41"/>
+      <c r="KT6" s="41"/>
+      <c r="KU6" s="41"/>
+      <c r="KV6" s="41"/>
+      <c r="KW6" s="41"/>
+      <c r="KX6" s="41"/>
+      <c r="KY6" s="41"/>
+      <c r="KZ6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="LA6" s="63"/>
-      <c r="LB6" s="63"/>
-      <c r="LC6" s="63"/>
-      <c r="LD6" s="63"/>
-      <c r="LE6" s="63"/>
-      <c r="LF6" s="63"/>
-      <c r="LG6" s="63"/>
-      <c r="LH6" s="63"/>
-      <c r="LI6" s="63"/>
-      <c r="LJ6" s="63"/>
-      <c r="LK6" s="63"/>
-      <c r="LL6" s="63"/>
-      <c r="LM6" s="63"/>
-      <c r="LN6" s="63"/>
-      <c r="LO6" s="63"/>
-      <c r="LP6" s="63"/>
-      <c r="LQ6" s="63"/>
-      <c r="LR6" s="63"/>
-      <c r="LS6" s="63"/>
-      <c r="LT6" s="63"/>
-      <c r="LU6" s="63"/>
-      <c r="LV6" s="63"/>
-      <c r="LW6" s="63"/>
-      <c r="LX6" s="63"/>
-      <c r="LY6" s="63"/>
-      <c r="LZ6" s="63"/>
-      <c r="MA6" s="63"/>
-      <c r="MB6" s="63"/>
-      <c r="MC6" s="63"/>
-      <c r="MD6" s="63" t="s">
+      <c r="LA6" s="41"/>
+      <c r="LB6" s="41"/>
+      <c r="LC6" s="41"/>
+      <c r="LD6" s="41"/>
+      <c r="LE6" s="41"/>
+      <c r="LF6" s="41"/>
+      <c r="LG6" s="41"/>
+      <c r="LH6" s="41"/>
+      <c r="LI6" s="41"/>
+      <c r="LJ6" s="41"/>
+      <c r="LK6" s="41"/>
+      <c r="LL6" s="41"/>
+      <c r="LM6" s="41"/>
+      <c r="LN6" s="41"/>
+      <c r="LO6" s="41"/>
+      <c r="LP6" s="41"/>
+      <c r="LQ6" s="41"/>
+      <c r="LR6" s="41"/>
+      <c r="LS6" s="41"/>
+      <c r="LT6" s="41"/>
+      <c r="LU6" s="41"/>
+      <c r="LV6" s="41"/>
+      <c r="LW6" s="41"/>
+      <c r="LX6" s="41"/>
+      <c r="LY6" s="41"/>
+      <c r="LZ6" s="41"/>
+      <c r="MA6" s="41"/>
+      <c r="MB6" s="41"/>
+      <c r="MC6" s="41"/>
+      <c r="MD6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="ME6" s="63"/>
-      <c r="MF6" s="63"/>
-      <c r="MG6" s="63"/>
-      <c r="MH6" s="63"/>
-      <c r="MI6" s="63"/>
-      <c r="MJ6" s="63"/>
-      <c r="MK6" s="63"/>
-      <c r="ML6" s="63"/>
-      <c r="MM6" s="63"/>
-      <c r="MN6" s="63"/>
-      <c r="MO6" s="63"/>
-      <c r="MP6" s="63"/>
-      <c r="MQ6" s="63"/>
-      <c r="MR6" s="63"/>
-      <c r="MS6" s="63"/>
-      <c r="MT6" s="63"/>
-      <c r="MU6" s="63"/>
-      <c r="MV6" s="63"/>
-      <c r="MW6" s="63"/>
-      <c r="MX6" s="63"/>
-      <c r="MY6" s="63"/>
-      <c r="MZ6" s="63"/>
-      <c r="NA6" s="63"/>
-      <c r="NB6" s="63"/>
-      <c r="NC6" s="63"/>
-      <c r="ND6" s="63"/>
-      <c r="NE6" s="63"/>
-      <c r="NF6" s="63"/>
-      <c r="NG6" s="63"/>
-      <c r="NH6" s="63"/>
-      <c r="NI6" s="63" t="s">
+      <c r="ME6" s="41"/>
+      <c r="MF6" s="41"/>
+      <c r="MG6" s="41"/>
+      <c r="MH6" s="41"/>
+      <c r="MI6" s="41"/>
+      <c r="MJ6" s="41"/>
+      <c r="MK6" s="41"/>
+      <c r="ML6" s="41"/>
+      <c r="MM6" s="41"/>
+      <c r="MN6" s="41"/>
+      <c r="MO6" s="41"/>
+      <c r="MP6" s="41"/>
+      <c r="MQ6" s="41"/>
+      <c r="MR6" s="41"/>
+      <c r="MS6" s="41"/>
+      <c r="MT6" s="41"/>
+      <c r="MU6" s="41"/>
+      <c r="MV6" s="41"/>
+      <c r="MW6" s="41"/>
+      <c r="MX6" s="41"/>
+      <c r="MY6" s="41"/>
+      <c r="MZ6" s="41"/>
+      <c r="NA6" s="41"/>
+      <c r="NB6" s="41"/>
+      <c r="NC6" s="41"/>
+      <c r="ND6" s="41"/>
+      <c r="NE6" s="41"/>
+      <c r="NF6" s="41"/>
+      <c r="NG6" s="41"/>
+      <c r="NH6" s="41"/>
+      <c r="NI6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="NJ6" s="63"/>
-      <c r="NK6" s="63"/>
-      <c r="NL6" s="63"/>
-      <c r="NM6" s="63"/>
-      <c r="NN6" s="63"/>
-      <c r="NO6" s="63"/>
-      <c r="NP6" s="63"/>
-      <c r="NQ6" s="63"/>
-      <c r="NR6" s="63"/>
-      <c r="NS6" s="63"/>
-      <c r="NT6" s="63"/>
-      <c r="NU6" s="63"/>
-      <c r="NV6" s="63"/>
-      <c r="NW6" s="63"/>
-      <c r="NX6" s="63"/>
-      <c r="NY6" s="63"/>
-      <c r="NZ6" s="63"/>
-      <c r="OA6" s="63"/>
-      <c r="OB6" s="63"/>
-      <c r="OC6" s="63"/>
-      <c r="OD6" s="63"/>
-      <c r="OE6" s="63"/>
-      <c r="OF6" s="63"/>
-      <c r="OG6" s="63"/>
-      <c r="OH6" s="63"/>
-      <c r="OI6" s="63"/>
-      <c r="OJ6" s="63"/>
-      <c r="OK6" s="63"/>
-      <c r="OL6" s="63"/>
-      <c r="OM6" s="63" t="s">
+      <c r="NJ6" s="41"/>
+      <c r="NK6" s="41"/>
+      <c r="NL6" s="41"/>
+      <c r="NM6" s="41"/>
+      <c r="NN6" s="41"/>
+      <c r="NO6" s="41"/>
+      <c r="NP6" s="41"/>
+      <c r="NQ6" s="41"/>
+      <c r="NR6" s="41"/>
+      <c r="NS6" s="41"/>
+      <c r="NT6" s="41"/>
+      <c r="NU6" s="41"/>
+      <c r="NV6" s="41"/>
+      <c r="NW6" s="41"/>
+      <c r="NX6" s="41"/>
+      <c r="NY6" s="41"/>
+      <c r="NZ6" s="41"/>
+      <c r="OA6" s="41"/>
+      <c r="OB6" s="41"/>
+      <c r="OC6" s="41"/>
+      <c r="OD6" s="41"/>
+      <c r="OE6" s="41"/>
+      <c r="OF6" s="41"/>
+      <c r="OG6" s="41"/>
+      <c r="OH6" s="41"/>
+      <c r="OI6" s="41"/>
+      <c r="OJ6" s="41"/>
+      <c r="OK6" s="41"/>
+      <c r="OL6" s="41"/>
+      <c r="OM6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="ON6" s="63"/>
-      <c r="OO6" s="63"/>
-      <c r="OP6" s="63"/>
-      <c r="OQ6" s="63"/>
-      <c r="OR6" s="63"/>
-      <c r="OS6" s="63"/>
-      <c r="OT6" s="63"/>
-      <c r="OU6" s="63"/>
-      <c r="OV6" s="63"/>
-      <c r="OW6" s="63"/>
-      <c r="OX6" s="63"/>
-      <c r="OY6" s="63"/>
-      <c r="OZ6" s="63"/>
-      <c r="PA6" s="63"/>
-      <c r="PB6" s="63"/>
-      <c r="PC6" s="63"/>
-      <c r="PD6" s="63"/>
-      <c r="PE6" s="63"/>
-      <c r="PF6" s="63"/>
-      <c r="PG6" s="63"/>
-      <c r="PH6" s="63"/>
-      <c r="PI6" s="63"/>
-      <c r="PJ6" s="63"/>
-      <c r="PK6" s="63"/>
-      <c r="PL6" s="63"/>
-      <c r="PM6" s="63"/>
-      <c r="PN6" s="63"/>
-      <c r="PO6" s="63"/>
-      <c r="PP6" s="63"/>
-      <c r="PQ6" s="63"/>
-      <c r="PR6" s="63"/>
-      <c r="PS6" s="63"/>
+      <c r="ON6" s="41"/>
+      <c r="OO6" s="41"/>
+      <c r="OP6" s="41"/>
+      <c r="OQ6" s="41"/>
+      <c r="OR6" s="41"/>
+      <c r="OS6" s="41"/>
+      <c r="OT6" s="41"/>
+      <c r="OU6" s="41"/>
+      <c r="OV6" s="41"/>
+      <c r="OW6" s="41"/>
+      <c r="OX6" s="41"/>
+      <c r="OY6" s="41"/>
+      <c r="OZ6" s="41"/>
+      <c r="PA6" s="41"/>
+      <c r="PB6" s="41"/>
+      <c r="PC6" s="41"/>
+      <c r="PD6" s="41"/>
+      <c r="PE6" s="41"/>
+      <c r="PF6" s="41"/>
+      <c r="PG6" s="41"/>
+      <c r="PH6" s="41"/>
+      <c r="PI6" s="41"/>
+      <c r="PJ6" s="41"/>
+      <c r="PK6" s="41"/>
+      <c r="PL6" s="41"/>
+      <c r="PM6" s="41"/>
+      <c r="PN6" s="41"/>
+      <c r="PO6" s="41"/>
+      <c r="PP6" s="41"/>
+      <c r="PQ6" s="41"/>
+      <c r="PR6" s="41"/>
+      <c r="PS6" s="41"/>
     </row>
     <row r="7" spans="1:435" ht="51" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="39">
         <f t="shared" ref="I7:AR7" si="0">I9</f>
         <v>44137</v>
@@ -2201,7 +2145,7 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="39">
         <f t="shared" si="0"/>
         <v>44144</v>
@@ -2211,7 +2155,7 @@
       <c r="S7" s="40"/>
       <c r="T7" s="40"/>
       <c r="U7" s="40"/>
-      <c r="V7" s="41"/>
+      <c r="V7" s="44"/>
       <c r="W7" s="39">
         <f t="shared" si="0"/>
         <v>44151</v>
@@ -2221,7 +2165,7 @@
       <c r="Z7" s="40"/>
       <c r="AA7" s="40"/>
       <c r="AB7" s="40"/>
-      <c r="AC7" s="41"/>
+      <c r="AC7" s="44"/>
       <c r="AD7" s="39">
         <f t="shared" si="0"/>
         <v>44158</v>
@@ -2231,7 +2175,7 @@
       <c r="AG7" s="40"/>
       <c r="AH7" s="40"/>
       <c r="AI7" s="40"/>
-      <c r="AJ7" s="41"/>
+      <c r="AJ7" s="44"/>
       <c r="AK7" s="39">
         <f t="shared" si="0"/>
         <v>44165</v>
@@ -2241,7 +2185,7 @@
       <c r="AN7" s="40"/>
       <c r="AO7" s="40"/>
       <c r="AP7" s="40"/>
-      <c r="AQ7" s="41"/>
+      <c r="AQ7" s="44"/>
       <c r="AR7" s="39">
         <f t="shared" si="0"/>
         <v>44172</v>
@@ -2291,7 +2235,7 @@
       <c r="BW7" s="40"/>
       <c r="BX7" s="40"/>
       <c r="BY7" s="40"/>
-      <c r="BZ7" s="41"/>
+      <c r="BZ7" s="44"/>
       <c r="CA7" s="39">
         <f t="shared" ref="CA7" si="5">CA9</f>
         <v>44207</v>
@@ -2301,7 +2245,7 @@
       <c r="CD7" s="40"/>
       <c r="CE7" s="40"/>
       <c r="CF7" s="40"/>
-      <c r="CG7" s="41"/>
+      <c r="CG7" s="44"/>
       <c r="CH7" s="39">
         <f t="shared" ref="CH7" si="6">CH9</f>
         <v>44214</v>
@@ -2311,7 +2255,7 @@
       <c r="CK7" s="40"/>
       <c r="CL7" s="40"/>
       <c r="CM7" s="40"/>
-      <c r="CN7" s="41"/>
+      <c r="CN7" s="44"/>
       <c r="CO7" s="39">
         <f t="shared" ref="CO7" si="7">CO9</f>
         <v>44221</v>
@@ -2321,7 +2265,7 @@
       <c r="CR7" s="40"/>
       <c r="CS7" s="40"/>
       <c r="CT7" s="40"/>
-      <c r="CU7" s="41"/>
+      <c r="CU7" s="44"/>
       <c r="CV7" s="39">
         <f t="shared" ref="CV7" si="8">CV9</f>
         <v>44228</v>
@@ -2331,7 +2275,7 @@
       <c r="CY7" s="40"/>
       <c r="CZ7" s="40"/>
       <c r="DA7" s="40"/>
-      <c r="DB7" s="41"/>
+      <c r="DB7" s="44"/>
       <c r="DC7" s="39">
         <f t="shared" ref="DC7" si="9">DC9</f>
         <v>44235</v>
@@ -2381,7 +2325,7 @@
       <c r="EH7" s="40"/>
       <c r="EI7" s="40"/>
       <c r="EJ7" s="40"/>
-      <c r="EK7" s="41"/>
+      <c r="EK7" s="44"/>
       <c r="EL7" s="39">
         <f t="shared" ref="EL7" si="14">EL9</f>
         <v>44270</v>
@@ -2391,7 +2335,7 @@
       <c r="EO7" s="40"/>
       <c r="EP7" s="40"/>
       <c r="EQ7" s="40"/>
-      <c r="ER7" s="41"/>
+      <c r="ER7" s="44"/>
       <c r="ES7" s="39">
         <f t="shared" ref="ES7" si="15">ES9</f>
         <v>44277</v>
@@ -2401,7 +2345,7 @@
       <c r="EV7" s="40"/>
       <c r="EW7" s="40"/>
       <c r="EX7" s="40"/>
-      <c r="EY7" s="41"/>
+      <c r="EY7" s="44"/>
       <c r="EZ7" s="39">
         <f t="shared" ref="EZ7" si="16">EZ9</f>
         <v>44284</v>
@@ -2411,7 +2355,7 @@
       <c r="FC7" s="40"/>
       <c r="FD7" s="40"/>
       <c r="FE7" s="40"/>
-      <c r="FF7" s="41"/>
+      <c r="FF7" s="44"/>
       <c r="FG7" s="39">
         <f t="shared" ref="FG7" si="17">FG9</f>
         <v>44291</v>
@@ -2421,7 +2365,7 @@
       <c r="FJ7" s="40"/>
       <c r="FK7" s="40"/>
       <c r="FL7" s="40"/>
-      <c r="FM7" s="41"/>
+      <c r="FM7" s="44"/>
       <c r="FN7" s="39">
         <f t="shared" ref="FN7" si="18">FN9</f>
         <v>44298</v>
@@ -6267,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D11,$I$9:$PS$9,"&lt;="&amp;$E11),"")</f>
+        <f t="shared" ref="C11:C23" si="64">IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D11,$I$9:$PS$9,"&lt;="&amp;$E11),"")</f>
         <v>18</v>
       </c>
       <c r="D11" s="33">
@@ -6718,7 +6662,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D12,$I$9:$PS$9,"&lt;="&amp;$E12),"")</f>
+        <f t="shared" si="64"/>
         <v>96</v>
       </c>
       <c r="D12" s="33">
@@ -7166,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D13,$I$9:$PS$9,"&lt;="&amp;$E13),"")</f>
+        <f t="shared" si="64"/>
         <v>96</v>
       </c>
       <c r="D13" s="33">
@@ -7614,7 +7558,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D14,$I$9:$PS$9,"&lt;="&amp;$E14),"")</f>
+        <f t="shared" si="64"/>
         <v>6</v>
       </c>
       <c r="D14" s="33">
@@ -8062,7 +8006,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D15,$I$9:$PS$9,"&lt;="&amp;$E15),"")</f>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="D15" s="33">
@@ -8510,7 +8454,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D16,$I$9:$PS$9,"&lt;="&amp;$E16),"")</f>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="D16" s="33">
@@ -8958,7 +8902,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D17,$I$9:$PS$9,"&lt;="&amp;$E17),"")</f>
+        <f t="shared" si="64"/>
         <v>34</v>
       </c>
       <c r="D17" s="33">
@@ -9406,7 +9350,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D18,$I$9:$PS$9,"&lt;="&amp;$E18),"")</f>
+        <f t="shared" si="64"/>
         <v>40</v>
       </c>
       <c r="D18" s="33">
@@ -9854,7 +9798,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D19,$I$9:$PS$9,"&lt;="&amp;$E19),"")</f>
+        <f t="shared" si="64"/>
         <v>23</v>
       </c>
       <c r="D19" s="33">
@@ -10302,7 +10246,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D20,$I$9:$PS$9,"&lt;="&amp;$E20),"")</f>
+        <f t="shared" si="64"/>
         <v>150</v>
       </c>
       <c r="D20" s="33">
@@ -10750,7 +10694,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D21,$I$9:$PS$9,"&lt;="&amp;$E21),"")</f>
+        <f t="shared" si="64"/>
         <v>19</v>
       </c>
       <c r="D21" s="33">
@@ -11198,7 +11142,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D22,$I$9:$PS$9,"&lt;="&amp;$E22),"")</f>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="D22" s="33">
@@ -11646,7 +11590,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="32">
-        <f>IFERROR(SUMIFS($I$8:$PS$8,$I$9:$PS$9,"&gt;="&amp;$D23,$I$9:$PS$9,"&lt;="&amp;$E23),"")</f>
+        <f t="shared" si="64"/>
         <v>44</v>
       </c>
       <c r="D23" s="33">
@@ -12205,28 +12149,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -12239,25 +12180,28 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -12265,6 +12209,78 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="88">
+    <mergeCell ref="BT7:BZ7"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AD7:AJ7"/>
+    <mergeCell ref="AL6:BP6"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BF7:BK7"/>
+    <mergeCell ref="BM7:BR7"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:AK6"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="CA7:CG7"/>
+    <mergeCell ref="CH7:CN7"/>
+    <mergeCell ref="CO7:CU7"/>
+    <mergeCell ref="CV7:DB7"/>
+    <mergeCell ref="DC7:DH7"/>
+    <mergeCell ref="FU7:FZ7"/>
+    <mergeCell ref="DJ7:DO7"/>
+    <mergeCell ref="DQ7:DV7"/>
+    <mergeCell ref="DX7:EC7"/>
+    <mergeCell ref="EE7:EK7"/>
+    <mergeCell ref="EL7:ER7"/>
+    <mergeCell ref="HK7:HP7"/>
+    <mergeCell ref="HR7:HW7"/>
+    <mergeCell ref="BQ6:CU6"/>
+    <mergeCell ref="CV6:DW6"/>
+    <mergeCell ref="DX6:FB6"/>
+    <mergeCell ref="FC6:GF6"/>
+    <mergeCell ref="GG6:HK6"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="GI7:GN7"/>
+    <mergeCell ref="GP7:GU7"/>
+    <mergeCell ref="GW7:HB7"/>
+    <mergeCell ref="HD7:HI7"/>
+    <mergeCell ref="ES7:EY7"/>
+    <mergeCell ref="EZ7:FF7"/>
+    <mergeCell ref="FG7:FM7"/>
+    <mergeCell ref="FN7:FS7"/>
+    <mergeCell ref="HY7:ID7"/>
+    <mergeCell ref="IF7:IK7"/>
+    <mergeCell ref="IM7:IR7"/>
+    <mergeCell ref="IT7:IY7"/>
+    <mergeCell ref="JA7:JF7"/>
+    <mergeCell ref="JH7:JM7"/>
+    <mergeCell ref="JO7:JT7"/>
+    <mergeCell ref="JV7:KA7"/>
+    <mergeCell ref="KC7:KH7"/>
+    <mergeCell ref="KJ7:KO7"/>
+    <mergeCell ref="KQ7:KV7"/>
+    <mergeCell ref="KX7:LC7"/>
+    <mergeCell ref="LE7:LJ7"/>
+    <mergeCell ref="LL7:LQ7"/>
+    <mergeCell ref="LS7:LX7"/>
+    <mergeCell ref="LZ7:ME7"/>
+    <mergeCell ref="MG7:ML7"/>
+    <mergeCell ref="MN7:MS7"/>
+    <mergeCell ref="MU7:MZ7"/>
+    <mergeCell ref="NB7:NG7"/>
     <mergeCell ref="OR7:OW7"/>
     <mergeCell ref="OY7:PD7"/>
     <mergeCell ref="PF7:PK7"/>
@@ -12281,85 +12297,13 @@
     <mergeCell ref="NW7:OB7"/>
     <mergeCell ref="OD7:OI7"/>
     <mergeCell ref="OK7:OP7"/>
-    <mergeCell ref="LZ7:ME7"/>
-    <mergeCell ref="MG7:ML7"/>
-    <mergeCell ref="MN7:MS7"/>
-    <mergeCell ref="MU7:MZ7"/>
-    <mergeCell ref="NB7:NG7"/>
-    <mergeCell ref="KQ7:KV7"/>
-    <mergeCell ref="KX7:LC7"/>
-    <mergeCell ref="LE7:LJ7"/>
-    <mergeCell ref="LL7:LQ7"/>
-    <mergeCell ref="LS7:LX7"/>
-    <mergeCell ref="JH7:JM7"/>
-    <mergeCell ref="JO7:JT7"/>
-    <mergeCell ref="JV7:KA7"/>
-    <mergeCell ref="KC7:KH7"/>
-    <mergeCell ref="KJ7:KO7"/>
-    <mergeCell ref="HY7:ID7"/>
-    <mergeCell ref="IF7:IK7"/>
-    <mergeCell ref="IM7:IR7"/>
-    <mergeCell ref="IT7:IY7"/>
-    <mergeCell ref="JA7:JF7"/>
-    <mergeCell ref="HK7:HP7"/>
-    <mergeCell ref="HR7:HW7"/>
-    <mergeCell ref="BQ6:CU6"/>
-    <mergeCell ref="CV6:DW6"/>
-    <mergeCell ref="DX6:FB6"/>
-    <mergeCell ref="FC6:GF6"/>
-    <mergeCell ref="GG6:HK6"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="GI7:GN7"/>
-    <mergeCell ref="GP7:GU7"/>
-    <mergeCell ref="GW7:HB7"/>
-    <mergeCell ref="HD7:HI7"/>
-    <mergeCell ref="ES7:EY7"/>
-    <mergeCell ref="EZ7:FF7"/>
-    <mergeCell ref="FG7:FM7"/>
-    <mergeCell ref="FN7:FS7"/>
-    <mergeCell ref="FU7:FZ7"/>
-    <mergeCell ref="DJ7:DO7"/>
-    <mergeCell ref="DQ7:DV7"/>
-    <mergeCell ref="DX7:EC7"/>
-    <mergeCell ref="EE7:EK7"/>
-    <mergeCell ref="EL7:ER7"/>
-    <mergeCell ref="CA7:CG7"/>
-    <mergeCell ref="CH7:CN7"/>
-    <mergeCell ref="CO7:CU7"/>
-    <mergeCell ref="CV7:DB7"/>
-    <mergeCell ref="DC7:DH7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:AK6"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="BT7:BZ7"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="AD7:AJ7"/>
-    <mergeCell ref="AL6:BP6"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BF7:BK7"/>
-    <mergeCell ref="BM7:BR7"/>
-    <mergeCell ref="AK7:AQ7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10:PS20">
-    <cfRule type="expression" dxfId="13" priority="109">
+    <cfRule type="expression" dxfId="5" priority="109">
       <formula>I$8=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="110">
+    <cfRule type="expression" dxfId="4" priority="110">
       <formula>AND(I$9&gt;=$D10,I$9&lt;=$E10)</formula>
     </cfRule>
   </conditionalFormatting>
